--- a/checklist/CheckList.xlsx
+++ b/checklist/CheckList.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UX" sheetId="1" r:id="rId1"/>
     <sheet name="UI" sheetId="3" r:id="rId2"/>
+    <sheet name="Usability" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
   <si>
     <t>статус</t>
   </si>
@@ -257,18 +258,177 @@
   </si>
   <si>
     <t>Все раскрывающиеся списки веб-приложения — одинаковые по размеру и цвету.</t>
+  </si>
+  <si>
+    <t>Архитектура и навигация</t>
+  </si>
+  <si>
+    <t>Понятна ли схема навигации?</t>
+  </si>
+  <si>
+    <t>Можно ли определить в каком месте сайта вы находитесь?</t>
+  </si>
+  <si>
+    <t>Названия гиперссылок соответствуют названиям страницы?</t>
+  </si>
+  <si>
+    <t>Существует ли возможность поиска информации на сайте?</t>
+  </si>
+  <si>
+    <t>Каждая ли страница позволяет понять, на каком сайте вы находитесь?</t>
+  </si>
+  <si>
+    <t>Платформа и реализация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загрузка страниц происходит достаточно быстро? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Занимает ли загрузка страницы меньше, чем 6 секунд? </t>
+  </si>
+  <si>
+    <t>Работает ли сайта с браузером пользователя?</t>
+  </si>
+  <si>
+    <t>Работает ли сайт с оборудованием, которое использует пользователь?</t>
+  </si>
+  <si>
+    <t>Работает ли сайт на мониторах высокого и низкого разрешения?</t>
+  </si>
+  <si>
+    <t>Существуют ли поврежденные графические элементы?</t>
+  </si>
+  <si>
+    <t>Оформление текста</t>
+  </si>
+  <si>
+    <t>Гарнитура шрифта используется надлежащим образом и последовательно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Достаточной ли ширины поля вокруг текста? </t>
+  </si>
+  <si>
+    <t>Цвет шрифта распозноваем и достаточно контрастрасен?</t>
+  </si>
+  <si>
+    <t>Размер шрифта достаточно большой, чтобы распознать текст/содержание страницы?</t>
+  </si>
+  <si>
+    <t>Цветовое оформление</t>
+  </si>
+  <si>
+    <t>Цвета, используемые на странице, расположение последовательно и гармонируют друг с другом. Например, использование цвета - красный (#ff1818) и зеленого(#94ff18) - отрицательно гармонируют.</t>
+  </si>
+  <si>
+    <t>Устойчивость к ошибкам</t>
+  </si>
+  <si>
+    <t>Возникает ли предупреждение при попытке совершения необратимых или дорогостоящих действий?</t>
+  </si>
+  <si>
+    <t>Можно ли отменить рискованные или дорогостоящие действия?</t>
+  </si>
+  <si>
+    <t>Перехватываются ли возникающие ошибки локально, без обращения к серверу?</t>
+  </si>
+  <si>
+    <t>Содержат ли страницы с сообщением о возникших ошибках полезную информацию?</t>
+  </si>
+  <si>
+    <t>Содержат ли страницы с пустыми результатами поиска советы по расширению условий поиска?</t>
+  </si>
+  <si>
+    <t>Существует ли система помощи (справки)?</t>
+  </si>
+  <si>
+    <t>Структурирована ли помощь по задачам пользователя? Объясняет ли она пользователю, как совершить то, или иное действие?</t>
+  </si>
+  <si>
+    <t>Графика</t>
+  </si>
+  <si>
+    <t>Является ли качество используемой графики приемлемым?</t>
+  </si>
+  <si>
+    <t>Оптимизированы ли графические элементы для передачи по Интернету?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объем файлов анимации приемлемый? </t>
+  </si>
+  <si>
+    <t>Взаимодействие с формами</t>
+  </si>
+  <si>
+    <t>Соответствуют ли формы задачам пользователя?</t>
+  </si>
+  <si>
+    <t>Все ли элементы форм используются по назначению?</t>
+  </si>
+  <si>
+    <t>Понятно ли выглядит кнопка отправки формы?</t>
+  </si>
+  <si>
+    <t>Сгруппированы ли элементы формы по своей сути?</t>
+  </si>
+  <si>
+    <t>Планировка и дизайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размер страницы превышает размер окна? </t>
+  </si>
+  <si>
+    <t>Схема планировка повторяется на всех страницах?</t>
+  </si>
+  <si>
+    <t>Не громоздкая ли планировка?</t>
+  </si>
+  <si>
+    <t>Содержание</t>
+  </si>
+  <si>
+    <t>Тексты на сайте понятны?</t>
+  </si>
+  <si>
+    <t>Организован ли текст в виде небольших блоков?</t>
+  </si>
+  <si>
+    <t>Встречаются ли в тексте грамматические и орфографические ошибки и опечатки?</t>
+  </si>
+  <si>
+    <t>Являются ли единицы измерения, используемые на сайт понятными и не вызовут ли они трудностей при использовании их иностранцами?</t>
+  </si>
+  <si>
+    <t>Представлены ли на сайте время и дата создания страниц?</t>
+  </si>
+  <si>
+    <t>Представлены ли на сайте номера контактных телефонов?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -328,19 +488,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -354,6 +505,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -636,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -648,39 +810,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -713,11 +875,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -735,11 +897,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -747,11 +909,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -764,11 +926,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -781,11 +943,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -818,11 +980,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
@@ -845,76 +1007,76 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -925,6 +1087,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A12:C12"/>
@@ -934,7 +1097,6 @@
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -942,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,22 +1118,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -979,11 +1141,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1006,11 +1168,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1023,11 +1185,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1050,11 +1212,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -1072,11 +1234,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1089,11 +1251,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1111,11 +1273,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -1138,11 +1300,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -1160,11 +1322,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1181,8 +1343,72 @@
         <v>67</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A33:C33"/>
@@ -1196,4 +1422,246 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="125.85546875" customWidth="1"/>
+    <col min="3" max="3" width="114" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/checklist/CheckList.xlsx
+++ b/checklist/CheckList.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12420" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="UX" sheetId="1" r:id="rId1"/>
-    <sheet name="UI" sheetId="3" r:id="rId2"/>
-    <sheet name="Usability" sheetId="5" r:id="rId3"/>
+    <sheet name="Описание" sheetId="6" r:id="rId1"/>
+    <sheet name="UX" sheetId="1" r:id="rId2"/>
+    <sheet name="UI" sheetId="3" r:id="rId3"/>
+    <sheet name="Usability" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="статус">Описание!$E$3:$E$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="142">
   <si>
     <t>статус</t>
   </si>
@@ -136,9 +140,6 @@
 ссылка выделена синим цветом, а другая — красным.</t>
   </si>
   <si>
-    <t>Плейсхолдер появляется, если очистить поле или убрать из него.</t>
-  </si>
-  <si>
     <t>У поля обязательно есть дополнительное логическое описание — надпись. Так пользователь понимает, какую роль выполняет поле после того, как плейсхолдер исчез.</t>
   </si>
   <si>
@@ -221,9 +222,6 @@
 отображается.</t>
   </si>
   <si>
-    <t>Прокручивать можно клавишами Вверх-Вниз или колёсиком мыши.</t>
-  </si>
-  <si>
     <t>Если выбрать значение из списка, оно выделяется как выбранное.</t>
   </si>
   <si>
@@ -302,24 +300,12 @@
     <t>Оформление текста</t>
   </si>
   <si>
-    <t>Гарнитура шрифта используется надлежащим образом и последовательно?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Достаточной ли ширины поля вокруг текста? </t>
   </si>
   <si>
-    <t>Цвет шрифта распозноваем и достаточно контрастрасен?</t>
-  </si>
-  <si>
-    <t>Размер шрифта достаточно большой, чтобы распознать текст/содержание страницы?</t>
-  </si>
-  <si>
     <t>Цветовое оформление</t>
   </si>
   <si>
-    <t>Цвета, используемые на странице, расположение последовательно и гармонируют друг с другом. Например, использование цвета - красный (#ff1818) и зеленого(#94ff18) - отрицательно гармонируют.</t>
-  </si>
-  <si>
     <t>Устойчивость к ошибкам</t>
   </si>
   <si>
@@ -374,15 +360,6 @@
     <t>Планировка и дизайн</t>
   </si>
   <si>
-    <t xml:space="preserve">Размер страницы превышает размер окна? </t>
-  </si>
-  <si>
-    <t>Схема планировка повторяется на всех страницах?</t>
-  </si>
-  <si>
-    <t>Не громоздкая ли планировка?</t>
-  </si>
-  <si>
     <t>Содержание</t>
   </si>
   <si>
@@ -402,6 +379,192 @@
   </si>
   <si>
     <t>Представлены ли на сайте номера контактных телефонов?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Входны данные:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;пробел&gt;&lt;слово&gt;", "&lt;слово&gt;&lt;пробел&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Входны данные:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;начало слова&gt;&lt;спец. символ&gt;&lt;конец слова&gt;", "&lt;слово&gt;&lt;спец. символ&gt;", "&lt;спец. символ&gt;&lt;слово&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Входны данные:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Тип - число/int/long - "45", Тип - число c точкой/float/double - "45.12" и т.д.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Входны данные:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Тип - дата/date - "19.03.2001", Тип - число/int/long - "45", Тип - почта/mail - " &lt;начало почты&gt;mail.ru"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Входны данные:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&lt;один символ/пусто&gt;", "&lt;макс. кол-во символов&gt;"</t>
+    </r>
+  </si>
+  <si>
+    <t>Плейсхолдер появляется, если очистить поле или убрать от него "фокус мышки".</t>
+  </si>
+  <si>
+    <t>Прокручивать можно клавишами Вверх-Вниз(Page up и Page down, Home и End, стрелки Вверх-Вниз) или колёсиком мыши.</t>
+  </si>
+  <si>
+    <t>Прокручивать можно клавишами Вверх-Вниз(Page up и Page down, Home и End, стрелки Вверх-Вниз) или колёсиком мыши или колёсиком мыши.</t>
+  </si>
+  <si>
+    <t>Размер шрифта должен быть достаточно большим, чтобы распознать текст/содержание страницы.</t>
+  </si>
+  <si>
+    <t>Цвет шрифта распозноваем и достаточно контрастрасен.</t>
+  </si>
+  <si>
+    <t>Цвета, используемые на странице, расположены последовательно и гармонируют друг с другом. Например, использование цвета - красный (#ff1818) и зеленого(#94ff18) - отрицательно гармонируют.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размер страницы не должен превышать размер окна. </t>
+  </si>
+  <si>
+    <t>Гарнитура шрифта используется надлежащим образом и последовательно.</t>
+  </si>
+  <si>
+    <t>Схема планировки должна повторятся на всех страницах.</t>
+  </si>
+  <si>
+    <t>Планировка страниц сайта не должна быть громоздкой.</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Описание проверки</t>
+  </si>
+  <si>
+    <t>Тестовые данные</t>
+  </si>
+  <si>
+    <t>колонка используется для отслеживания текущего состояния выполнения тестов.</t>
+  </si>
+  <si>
+    <t>колонка описывает конкретный шаг или действие, которое должно быть выполнено в рамках тестирования.</t>
+  </si>
+  <si>
+    <t>колонка содержит конкретные данные, которые необходимо использовать при выполнении теста.</t>
+  </si>
+  <si>
+    <t>Тип колонки</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Пройдено/ОК</t>
+  </si>
+  <si>
+    <t>Не пройдено/Bug</t>
+  </si>
+  <si>
+    <t>В процессе/Ожидание</t>
+  </si>
+  <si>
+    <t>Не тестируется</t>
   </si>
 </sst>
 </file>
@@ -417,13 +580,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -432,7 +597,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,8 +616,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF96F6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -475,53 +670,74 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF96F6F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -796,294 +1012,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="125.85546875" customWidth="1"/>
     <col min="3" max="3" width="114" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="12" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="12" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C9" s="12" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C10" s="12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="C11" s="12" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="C50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1098,311 +1472,391 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A18:C18"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A4 A6:A11 A13:A15 A17 A19:A20 A22:A23 A25:A30 A32:A35 A37:A41 A43:A50">
+      <formula1>статус</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="125.85546875" customWidth="1"/>
     <col min="3" max="3" width="114" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
+      <c r="A48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1413,244 +1867,313 @@
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5:A8 A10:A11 A13:A16 A18:A20 A22:A23 A25:A27 A29:A32 A34:A36 A38:A40 A42:A44 A45 A47 A50 A51 A49">
+      <formula1>статус</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="125.85546875" customWidth="1"/>
     <col min="3" max="3" width="114" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1661,6 +2184,11 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A8 A10:A15 A17:A23 A25:A27 A29:A32 A34:A39">
+      <formula1>статус</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/checklist/CheckList.xlsx
+++ b/checklist/CheckList.xlsx
@@ -692,15 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,6 +716,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,51 +1027,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,46 +1107,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1182,282 +1182,282 @@
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1486,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -1509,357 +1509,363 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A48:C48"/>
@@ -1867,12 +1873,6 @@
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A5:A8 A10:A11 A13:A16 A18:A20 A22:A23 A25:A27 A29:A32 A34:A36 A38:A40 A42:A44 A45 A47 A50 A51 A49">
@@ -1910,270 +1910,270 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
